--- a/11-CollaborationList/Lancaster.xlsx
+++ b/11-CollaborationList/Lancaster.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410717E2-3E3D-8849-A35E-517FD9A819D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9163ACE-B5C5-874D-B579-D454E65E110F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30500" yWindow="9200" windowWidth="30240" windowHeight="19000" xr2:uid="{A23F18C5-DD0F-7644-985A-7269B47852C9}"/>
+    <workbookView xWindow="38640" yWindow="0" windowWidth="30240" windowHeight="19000" xr2:uid="{A23F18C5-DD0F-7644-985A-7269B47852C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Cockcroft" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>CI-DL</t>
   </si>
   <si>
-    <t>Cockcroft Institute, Sci-Tech Daresbury, Keckwick Lane, Warrington WA4 4AD, UK</t>
-  </si>
-  <si>
     <t>0000-0003-1970-6794</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>S. Jamison</t>
+  </si>
+  <si>
+    <t>Cockcroft Institiute for Accelerator Science, Keckwick Ln, Daresbury, Warrington WA4 4AD</t>
   </si>
 </sst>
 </file>
@@ -1077,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98F3065-14F5-4047-A0B1-B7D22D5F3745}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1147,7 +1147,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -1182,30 +1182,30 @@
         <v>23</v>
       </c>
       <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" t="s">
         <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -1220,36 +1220,36 @@
         <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1258,36 +1258,36 @@
         <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>43</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1296,33 +1296,33 @@
         <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" t="s">
         <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>52</v>
       </c>
       <c r="G6" t="s">
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6">
         <v>0</v>

--- a/11-CollaborationList/Lancaster.xlsx
+++ b/11-CollaborationList/Lancaster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9163ACE-B5C5-874D-B579-D454E65E110F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89A2524-F21A-C04A-8635-17F43EE26641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38640" yWindow="0" windowWidth="30240" windowHeight="19000" xr2:uid="{A23F18C5-DD0F-7644-985A-7269B47852C9}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>Title</t>
   </si>
@@ -88,9 +88,6 @@
     <t>CI-Lancaster</t>
   </si>
   <si>
-    <t>Department of Physics, Lancaster University, Bailrigg, Lancaster LA1 4YW, UK</t>
-  </si>
-  <si>
     <t>CI-DL</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
     <t>Stuart R. O'Neill</t>
   </si>
   <si>
-    <t>Physics Department, Lancaster University, Lancaster, UK, LA1 4YB</t>
-  </si>
-  <si>
     <t>​​0000-0002-4136-4244</t>
   </si>
   <si>
@@ -179,6 +173,9 @@
   </si>
   <si>
     <t>Cockcroft Institiute for Accelerator Science, Keckwick Ln, Daresbury, Warrington WA4 4AD</t>
+  </si>
+  <si>
+    <t>Department of Physics, Lancaster University, Bailrigg, Lancaster, LA1 4YW, UK</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1075,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:K4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1147,7 +1144,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -1173,156 +1170,156 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
         <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" t="s">
-        <v>51</v>
       </c>
       <c r="G6" t="s">
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I6">
         <v>0</v>
